--- a/Test Plan/SLA1500_CAM_Test.xlsx
+++ b/Test Plan/SLA1500_CAM_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\Test Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamt\Documents\GitHub\Capstone-Sightline\Test Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2795D2-82DB-4487-90FA-E1FAB614E380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E0CF36-8588-4BD7-97EC-D0ED838BD7B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{79C9D5E3-0EA1-464F-8DA7-096B1FFE1B73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{79C9D5E3-0EA1-464F-8DA7-096B1FFE1B73}"/>
   </bookViews>
   <sheets>
     <sheet name="UT-01" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Test Case Name:</t>
   </si>
@@ -258,6 +257,15 @@
   </si>
   <si>
     <t xml:space="preserve">Video streaming on Panel Plus               </t>
+  </si>
+  <si>
+    <t>see some line of code/letter running on Tera Term.</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Before streaming the video to Panel, there are some setup that need to be done first. Follow the Sightline's setup for Airborne Camera document for more information.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -346,9 +354,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -358,10 +366,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,8 +695,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,28 +708,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
@@ -727,16 +738,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,60 +756,60 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -819,10 +830,10 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -837,8 +848,8 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -853,8 +864,8 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -869,8 +880,8 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -885,23 +896,30 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="A2:B2"/>
@@ -914,13 +932,6 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>
@@ -935,7 +946,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,28 +957,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
@@ -976,16 +987,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,60 +1005,60 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1068,10 +1079,10 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1086,8 +1097,8 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1102,8 +1113,8 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1118,8 +1129,8 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1134,8 +1145,8 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1150,8 +1161,8 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1166,8 +1177,8 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1182,23 +1193,35 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="A16:C16"/>
@@ -1209,18 +1232,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
@@ -1232,10 +1243,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,28 +1258,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1277,16 +1288,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,60 +1306,60 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1369,10 +1380,10 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1387,8 +1398,8 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1401,8 +1412,8 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1411,18 +1422,20 @@
       <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1431,28 +1444,37 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="A5:B5"/>
@@ -1461,12 +1483,11 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>
